--- a/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-humanname.xlsx
@@ -329,7 +329,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>NameRepresentationUse</t>
+    <t>nameRepresentationUse</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {iso21090-EN-representation}
@@ -855,7 +855,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
